--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFA6CA0-68AB-4F44-BA41-78DB8A08CE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCD280B-775D-FB49-A686-B7823C2343CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35440" yWindow="280" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FT fuel - Diesel'!$A$1:$K$578</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FT fuel - Diesel'!$A$1:$K$596</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="109">
   <si>
     <t>Activity</t>
   </si>
@@ -352,6 +352,18 @@
   </si>
   <si>
     <t>carbon monoxide, from RWGS, for Fischer Tropsch process, hydrogen from wood gasification, with CCS</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas, synthetic</t>
+  </si>
+  <si>
+    <t>Adapted from A.E.M. van den Oever, D. Costa, M. Messagie, Prospective life cycle assessment of alternatively fueled heavy-duty trucks, Applied Energy, 2023, https://doi.org/10.1016/j.apenergy.2023.120834. Energy-based allocation between 3 other co-products (diesel, wax and C5-C10 olefins). Allocation key for this co-product: 11%. Post corrected to preserve carbon balance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A.E.M. van den Oever, D. Costa, M. Messagie, Prospective life cycle assessment of alternatively fueled heavy-duty trucks, Applied Energy, 2023, https://doi.org/10.1016/j.apenergy.2023.120834</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation, with carbon capture and storage</t>
   </si>
 </sst>
 </file>
@@ -769,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K578"/>
+  <dimension ref="A1:K596"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3996,698 +4008,932 @@
       </c>
     </row>
     <row r="216" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="s">
+    <row r="217" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>3</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>34</v>
+      </c>
+      <c r="B224" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" t="s">
+        <v>3</v>
+      </c>
+      <c r="G226" t="s">
+        <v>2</v>
+      </c>
+      <c r="H226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="str">
+        <f>B217</f>
+        <v>liquefied petroleum gas production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation, with carbon capture and storage</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" t="s">
+        <v>15</v>
+      </c>
+      <c r="G227" t="str">
+        <f>B217</f>
+        <v>liquefied petroleum gas production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation, with carbon capture and storage</v>
+      </c>
+      <c r="H227" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="8" t="s">
+      <c r="B228">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C228" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229">
+        <f>3.64160231884058*0.11</f>
+        <v>0.4005762550724638</v>
+      </c>
+      <c r="D229" t="s">
+        <v>20</v>
+      </c>
+      <c r="E229" t="s">
+        <v>21</v>
+      </c>
+      <c r="F229" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>24</v>
+      </c>
+      <c r="B230">
+        <f>0.00107549913043478*0.11</f>
+        <v>1.1830490434782582E-4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>25</v>
+      </c>
+      <c r="E230" t="s">
+        <v>26</v>
+      </c>
+      <c r="F230" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>37</v>
+      </c>
+      <c r="B231" s="3">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C231" t="s">
+        <v>32</v>
+      </c>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" t="s">
+        <v>18</v>
+      </c>
+      <c r="G231" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>88</v>
+      </c>
+      <c r="B232">
+        <v>-0.13</v>
+      </c>
+      <c r="D232" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232" t="s">
+        <v>87</v>
+      </c>
+      <c r="F232" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>27</v>
+      </c>
+      <c r="B233" s="3">
+        <f>0.0872420618556701*0.11</f>
+        <v>9.5966268041237108E-3</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="F233" t="s">
+        <v>18</v>
+      </c>
+      <c r="G233" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B218" s="8">
+      <c r="B236" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="8" t="s">
+    <row r="237" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B237" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="8" t="s">
+    <row r="238" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B238" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
+    <row r="239" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B221" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="8" t="s">
+      <c r="B239" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B222" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="8" t="s">
+      <c r="B240" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B241" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="8" t="s">
+    <row r="242" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B242" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A225" s="6" t="s">
+    <row r="243" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="8" t="s">
+    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B244" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="C244" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D226" s="8" t="s">
+      <c r="D244" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E226" s="8" t="s">
+      <c r="E244" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F226" s="8" t="s">
+      <c r="F244" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G226" s="8" t="s">
+      <c r="G244" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="8" t="s">
+    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B227" s="8">
+      <c r="B245" s="8">
         <v>0.875</v>
       </c>
-      <c r="C227" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F227" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" s="8" t="s">
+      <c r="C245" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228" s="10" t="s">
+    <row r="246" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B228" s="8">
+      <c r="B246" s="8">
         <v>0.125</v>
       </c>
-      <c r="C228" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F228" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" s="14" t="s">
+      <c r="C246" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G246" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="8" t="s">
+    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B229" s="8">
+      <c r="B247" s="8">
         <v>0.36599999999999999</v>
       </c>
-      <c r="C229" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="8" t="s">
+      <c r="C247" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F229" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" s="8" t="s">
+      <c r="F247" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G247" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="8" t="s">
+    <row r="248" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B230" s="8">
+      <c r="B248" s="8">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
-      <c r="D230" s="8" t="s">
+      <c r="D248" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E230" s="8" t="s">
+      <c r="E248" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F230" s="8" t="s">
+      <c r="F248" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="8" t="s">
+    <row r="249" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B231" s="8">
+      <c r="B249" s="8">
         <v>1</v>
       </c>
-      <c r="C231" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F231" s="8" t="s">
+      <c r="C249" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G231" s="8" t="s">
+      <c r="G249" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="8" t="s">
+    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B232" s="11">
+      <c r="B250" s="11">
         <v>5.7100000000000004E-6</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="C250" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D232" s="8" t="s">
+      <c r="D250" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F232" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="11"/>
-    </row>
-    <row r="234" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="6" t="s">
+      <c r="F250" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="11"/>
+    </row>
+    <row r="252" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B252" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="8" t="s">
+    <row r="253" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B235" s="8">
+      <c r="B253" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="8" t="s">
+    <row r="254" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B254" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="8" t="s">
+    <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B255" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="8" t="s">
+    <row r="256" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B238" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="8" t="s">
+      <c r="B256" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B239" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="8" t="s">
+      <c r="B257" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B258" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A241" s="6" t="s">
+    <row r="259" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="8" t="s">
+    <row r="260" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B260" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="C260" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D242" s="8" t="s">
+      <c r="D260" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E242" s="8" t="s">
+      <c r="E260" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F242" s="8" t="s">
+      <c r="F260" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G242" s="8" t="s">
+      <c r="G260" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="8" t="s">
+    <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B243" s="8">
+      <c r="B261" s="8">
         <v>1</v>
       </c>
-      <c r="C243" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F243" s="8" t="s">
+      <c r="C261" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G243" s="8" t="s">
+      <c r="G261" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A244" s="10" t="s">
+    <row r="262" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B244" s="8">
+      <c r="B262" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C244" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F244" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" s="14" t="s">
+      <c r="C262" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G262" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="8" t="s">
+    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B245" s="9">
+      <c r="B263" s="9">
         <v>1.9300000000000002E-9</v>
       </c>
-      <c r="C245" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="8" t="s">
+      <c r="C263" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F245" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" s="8" t="s">
+      <c r="F263" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G263" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="8" t="s">
+    <row r="264" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B246" s="9">
+      <c r="B264" s="9">
         <v>0</v>
       </c>
-      <c r="D246" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E246" s="8" t="s">
+      <c r="D264" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F246" s="8" t="s">
+      <c r="F264" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B254" s="3"/>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B255" s="3"/>
-    </row>
-    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="1"/>
-      <c r="B257" s="2"/>
-    </row>
-    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="1"/>
-    </row>
-    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A267" s="4"/>
-      <c r="G267" s="4"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B271" s="5"/>
+    <row r="266" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A266" s="1"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B272" s="5"/>
-    </row>
-    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A273" s="1"/>
-      <c r="B273" s="2"/>
-    </row>
-    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A280" s="1"/>
-    </row>
-    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="4"/>
-      <c r="G283" s="4"/>
-    </row>
-    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284" s="4"/>
-      <c r="G284" s="4"/>
-    </row>
-    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A287" s="1"/>
-      <c r="B287" s="2"/>
-    </row>
-    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A294" s="1"/>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B300" s="3"/>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B301" s="3"/>
-    </row>
-    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A303" s="1"/>
-      <c r="B303" s="2"/>
-    </row>
-    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A310" s="1"/>
-    </row>
-    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A313" s="4"/>
-      <c r="G313" s="4"/>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B317" s="5"/>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B318" s="5"/>
-    </row>
-    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A319" s="1"/>
-      <c r="B319" s="2"/>
-    </row>
-    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A326" s="1"/>
-    </row>
-    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A329" s="4"/>
-      <c r="G329" s="4"/>
-    </row>
-    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A330" s="4"/>
-      <c r="G330" s="4"/>
-    </row>
-    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A333" s="1"/>
-      <c r="B333" s="2"/>
-    </row>
-    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A340" s="1"/>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B346" s="3"/>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B347" s="3"/>
-    </row>
-    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A349" s="1"/>
-      <c r="B349" s="2"/>
-    </row>
-    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A356" s="1"/>
-    </row>
-    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A359" s="4"/>
-      <c r="G359" s="4"/>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B363" s="5"/>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B364" s="5"/>
-    </row>
-    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A365" s="1"/>
-      <c r="B365" s="2"/>
-    </row>
-    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A372" s="1"/>
-    </row>
-    <row r="375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A375" s="4"/>
-      <c r="G375" s="4"/>
-    </row>
-    <row r="376" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A376" s="4"/>
-      <c r="G376" s="4"/>
-    </row>
-    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A379" s="1"/>
-      <c r="B379" s="2"/>
-    </row>
-    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A386" s="1"/>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B392" s="3"/>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B393" s="3"/>
-    </row>
-    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A395" s="1"/>
-      <c r="B395" s="2"/>
-    </row>
-    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A405" s="4"/>
-      <c r="G405" s="4"/>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B409" s="5"/>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B410" s="5"/>
-    </row>
-    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A411" s="1"/>
-      <c r="B411" s="2"/>
-    </row>
-    <row r="418" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A418" s="1"/>
-    </row>
-    <row r="421" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A421" s="4"/>
-      <c r="G421" s="4"/>
-    </row>
-    <row r="422" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A422" s="4"/>
-      <c r="G422" s="4"/>
-    </row>
-    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A425" s="1"/>
-      <c r="B425" s="2"/>
-    </row>
-    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B438" s="3"/>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B439" s="3"/>
-    </row>
-    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A441" s="1"/>
-      <c r="B441" s="2"/>
-    </row>
-    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A448" s="1"/>
-    </row>
-    <row r="451" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A451" s="4"/>
-      <c r="G451" s="4"/>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B455" s="5"/>
-    </row>
-    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A457" s="1"/>
-      <c r="B457" s="2"/>
-    </row>
-    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A464" s="1"/>
-    </row>
-    <row r="467" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A467" s="4"/>
-      <c r="G467" s="4"/>
-    </row>
-    <row r="468" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A468" s="4"/>
-      <c r="G468" s="4"/>
-    </row>
-    <row r="470" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A470" s="1"/>
-      <c r="B470" s="2"/>
-    </row>
-    <row r="477" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A477" s="1"/>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B483" s="3"/>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B484" s="3"/>
+      <c r="B272" s="3"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B273" s="3"/>
+    </row>
+    <row r="275" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="1"/>
+      <c r="B275" s="2"/>
+    </row>
+    <row r="282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="285" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A285" s="4"/>
+      <c r="G285" s="4"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B289" s="5"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B290" s="5"/>
+    </row>
+    <row r="291" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A291" s="1"/>
+      <c r="B291" s="2"/>
+    </row>
+    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="301" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="4"/>
+      <c r="G301" s="4"/>
+    </row>
+    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="4"/>
+      <c r="G302" s="4"/>
+    </row>
+    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A305" s="1"/>
+      <c r="B305" s="2"/>
+    </row>
+    <row r="312" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B318" s="3"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B319" s="3"/>
+    </row>
+    <row r="321" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A321" s="1"/>
+      <c r="B321" s="2"/>
+    </row>
+    <row r="328" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="331" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A331" s="4"/>
+      <c r="G331" s="4"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B335" s="5"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B336" s="5"/>
+    </row>
+    <row r="337" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A337" s="1"/>
+      <c r="B337" s="2"/>
+    </row>
+    <row r="344" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A344" s="1"/>
+    </row>
+    <row r="347" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="4"/>
+      <c r="G347" s="4"/>
+    </row>
+    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A348" s="4"/>
+      <c r="G348" s="4"/>
+    </row>
+    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A351" s="1"/>
+      <c r="B351" s="2"/>
+    </row>
+    <row r="358" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B364" s="3"/>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B365" s="3"/>
+    </row>
+    <row r="367" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A367" s="1"/>
+      <c r="B367" s="2"/>
+    </row>
+    <row r="374" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A374" s="1"/>
+    </row>
+    <row r="377" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A377" s="4"/>
+      <c r="G377" s="4"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B381" s="5"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B382" s="5"/>
+    </row>
+    <row r="383" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A383" s="1"/>
+      <c r="B383" s="2"/>
+    </row>
+    <row r="390" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A390" s="1"/>
+    </row>
+    <row r="393" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A393" s="4"/>
+      <c r="G393" s="4"/>
+    </row>
+    <row r="394" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" s="4"/>
+      <c r="G394" s="4"/>
+    </row>
+    <row r="397" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A397" s="1"/>
+      <c r="B397" s="2"/>
+    </row>
+    <row r="404" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A404" s="1"/>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B410" s="3"/>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B411" s="3"/>
+    </row>
+    <row r="413" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A413" s="1"/>
+      <c r="B413" s="2"/>
+    </row>
+    <row r="420" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A420" s="1"/>
+    </row>
+    <row r="423" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A423" s="4"/>
+      <c r="G423" s="4"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B427" s="5"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B428" s="5"/>
+    </row>
+    <row r="429" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A429" s="1"/>
+      <c r="B429" s="2"/>
+    </row>
+    <row r="436" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A436" s="1"/>
+    </row>
+    <row r="439" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A439" s="4"/>
+      <c r="G439" s="4"/>
+    </row>
+    <row r="440" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A440" s="4"/>
+      <c r="G440" s="4"/>
+    </row>
+    <row r="443" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A443" s="1"/>
+      <c r="B443" s="2"/>
+    </row>
+    <row r="450" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A450" s="1"/>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B456" s="3"/>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B457" s="3"/>
+    </row>
+    <row r="459" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A459" s="1"/>
+      <c r="B459" s="2"/>
+    </row>
+    <row r="466" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A466" s="1"/>
+    </row>
+    <row r="469" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A469" s="4"/>
+      <c r="G469" s="4"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B473" s="5"/>
+    </row>
+    <row r="475" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A475" s="1"/>
+      <c r="B475" s="2"/>
+    </row>
+    <row r="482" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A482" s="1"/>
+    </row>
+    <row r="485" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A485" s="4"/>
+      <c r="G485" s="4"/>
     </row>
     <row r="486" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A486" s="1"/>
-      <c r="B486" s="2"/>
-    </row>
-    <row r="493" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A493" s="1"/>
-    </row>
-    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A496" s="4"/>
-      <c r="G496" s="4"/>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B500" s="5"/>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B501" s="5"/>
-    </row>
-    <row r="502" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A502" s="1"/>
-      <c r="B502" s="2"/>
-    </row>
-    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A509" s="1"/>
-    </row>
-    <row r="512" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A512" s="4"/>
-      <c r="G512" s="4"/>
-    </row>
-    <row r="513" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A513" s="4"/>
-      <c r="G513" s="4"/>
-    </row>
-    <row r="516" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A516" s="1"/>
-      <c r="B516" s="2"/>
-    </row>
-    <row r="523" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A523" s="1"/>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B529" s="3"/>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B530" s="3"/>
-    </row>
-    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A532" s="1"/>
-      <c r="B532" s="2"/>
-    </row>
-    <row r="539" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A539" s="1"/>
-    </row>
-    <row r="542" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A542" s="4"/>
-      <c r="G542" s="4"/>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B546" s="5"/>
-    </row>
-    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A548" s="1"/>
-      <c r="B548" s="2"/>
-    </row>
-    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A555" s="1"/>
-    </row>
-    <row r="558" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A558" s="4"/>
-      <c r="G558" s="4"/>
-    </row>
-    <row r="559" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A559" s="4"/>
-      <c r="G559" s="4"/>
-    </row>
-    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A561" s="1"/>
-      <c r="B561" s="2"/>
-    </row>
-    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A567" s="1"/>
-    </row>
-    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A572" s="1"/>
-      <c r="B572" s="2"/>
-    </row>
-    <row r="578" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A578" s="1"/>
+      <c r="A486" s="4"/>
+      <c r="G486" s="4"/>
+    </row>
+    <row r="488" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A488" s="1"/>
+      <c r="B488" s="2"/>
+    </row>
+    <row r="495" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A495" s="1"/>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B501" s="3"/>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B502" s="3"/>
+    </row>
+    <row r="504" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A504" s="1"/>
+      <c r="B504" s="2"/>
+    </row>
+    <row r="511" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A511" s="1"/>
+    </row>
+    <row r="514" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A514" s="4"/>
+      <c r="G514" s="4"/>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B518" s="5"/>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B519" s="5"/>
+    </row>
+    <row r="520" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A520" s="1"/>
+      <c r="B520" s="2"/>
+    </row>
+    <row r="527" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A527" s="1"/>
+    </row>
+    <row r="530" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A530" s="4"/>
+      <c r="G530" s="4"/>
+    </row>
+    <row r="531" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A531" s="4"/>
+      <c r="G531" s="4"/>
+    </row>
+    <row r="534" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A534" s="1"/>
+      <c r="B534" s="2"/>
+    </row>
+    <row r="541" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A541" s="1"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B547" s="3"/>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B548" s="3"/>
+    </row>
+    <row r="550" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A550" s="1"/>
+      <c r="B550" s="2"/>
+    </row>
+    <row r="557" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A557" s="1"/>
+    </row>
+    <row r="560" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A560" s="4"/>
+      <c r="G560" s="4"/>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B564" s="5"/>
+    </row>
+    <row r="566" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A566" s="1"/>
+      <c r="B566" s="2"/>
+    </row>
+    <row r="573" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A573" s="1"/>
+    </row>
+    <row r="576" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A576" s="4"/>
+      <c r="G576" s="4"/>
+    </row>
+    <row r="577" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A577" s="4"/>
+      <c r="G577" s="4"/>
+    </row>
+    <row r="579" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A579" s="1"/>
+      <c r="B579" s="2"/>
+    </row>
+    <row r="585" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A585" s="1"/>
+    </row>
+    <row r="590" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A590" s="1"/>
+      <c r="B590" s="2"/>
+    </row>
+    <row r="596" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A596" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K578" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K596" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification-with-CCS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCD280B-775D-FB49-A686-B7823C2343CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A892DB-E724-6747-9AB7-F17D2BEF30AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35440" yWindow="280" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12260" yWindow="1900" windowWidth="44800" windowHeight="23000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
@@ -304,11 +304,6 @@
     <t>Carbon dioxide, in air</t>
   </si>
   <si>
-    <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.
-The source for CO2 is from the gasification step to produce the H2. Hence, it comes free of burden.
-The CO2, instead of being stored underground, is embodied in teh fuel, hence no correction is needed.</t>
-  </si>
-  <si>
     <t>hydrogen, gaseous, 25 bar</t>
   </si>
   <si>
@@ -364,6 +359,9 @@
   </si>
   <si>
     <t>liquefied petroleum gas production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation, with carbon capture and storage</t>
+  </si>
+  <si>
+    <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg. The source for CO2 is from the gasification step to produce the H2. Hence, it comes free of burden. The CO2, instead of being stored underground, is embodied in the fuel, hence no correction is needed.</t>
   </si>
 </sst>
 </file>
@@ -783,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="G262" sqref="G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1294,7 +1292,7 @@
         <v>18</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2008,7 +2006,7 @@
         <v>18</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2239,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2334,7 +2332,7 @@
     </row>
     <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" s="8">
         <v>1</v>
@@ -2493,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2509,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2588,7 +2586,7 @@
     </row>
     <row r="119" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B119" s="8">
         <v>1</v>
@@ -2603,7 +2601,7 @@
         <v>15</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H119" s="8" t="s">
         <v>36</v>
@@ -2626,7 +2624,7 @@
         <v>18</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H120" s="8" t="s">
         <v>36</v>
@@ -2744,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2760,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2839,7 +2837,7 @@
     </row>
     <row r="137" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B137" s="8">
         <v>1</v>
@@ -2854,7 +2852,7 @@
         <v>15</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H137" s="8" t="s">
         <v>36</v>
@@ -2865,7 +2863,7 @@
     </row>
     <row r="138" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B138" s="8">
         <v>0.98</v>
@@ -2880,7 +2878,7 @@
         <v>18</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H138" s="8" t="s">
         <v>36</v>
@@ -2998,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3014,7 +3012,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3093,7 +3091,7 @@
     </row>
     <row r="155" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B155" s="8">
         <v>1</v>
@@ -3108,7 +3106,7 @@
         <v>15</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H155" s="8" t="s">
         <v>36</v>
@@ -3119,7 +3117,7 @@
     </row>
     <row r="156" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B156" s="8">
         <v>2.1</v>
@@ -3134,7 +3132,7 @@
         <v>18</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H156" s="8" t="s">
         <v>36</v>
@@ -3254,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3349,7 +3347,7 @@
     </row>
     <row r="173" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B173" s="8">
         <v>1</v>
@@ -3375,7 +3373,7 @@
     </row>
     <row r="174" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B174" s="8">
         <v>2.35</v>
@@ -3390,7 +3388,7 @@
         <v>18</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H174" s="8" t="s">
         <v>36</v>
@@ -3508,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3524,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3603,7 +3601,7 @@
     </row>
     <row r="191" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B191" s="8">
         <v>1</v>
@@ -3618,7 +3616,7 @@
         <v>15</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H191" s="8" t="s">
         <v>36</v>
@@ -3626,7 +3624,7 @@
     </row>
     <row r="192" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B192" s="8">
         <v>2.3199999999999998</v>
@@ -3641,7 +3639,7 @@
         <v>18</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H192" s="8" t="s">
         <v>36</v>
@@ -3759,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="200" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3775,7 +3773,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="202" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3854,7 +3852,7 @@
     </row>
     <row r="209" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B209" s="8">
         <v>1</v>
@@ -3869,7 +3867,7 @@
         <v>15</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H209" s="8" t="s">
         <v>36</v>
@@ -3880,7 +3878,7 @@
     </row>
     <row r="210" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B210" s="8">
         <v>2.2599999999999998</v>
@@ -3895,7 +3893,7 @@
         <v>18</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H210" s="8" t="s">
         <v>36</v>
@@ -4013,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -4029,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="B219" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -4061,7 +4059,7 @@
         <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -4069,7 +4067,7 @@
         <v>34</v>
       </c>
       <c r="B224" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -4130,7 +4128,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B228">
         <v>2.2799999999999998</v>
@@ -4145,7 +4143,7 @@
         <v>18</v>
       </c>
       <c r="G228" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -4247,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="236" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4263,7 +4261,7 @@
         <v>2</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="238" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4336,7 +4334,7 @@
     </row>
     <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B245" s="8">
         <v>0.875</v>
@@ -4351,7 +4349,7 @@
         <v>18</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="246" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4371,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="G246" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4457,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4473,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="255" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4505,7 +4503,7 @@
         <v>9</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4538,7 +4536,7 @@
     </row>
     <row r="261" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B261" s="8">
         <v>1</v>
@@ -4553,7 +4551,7 @@
         <v>15</v>
       </c>
       <c r="G261" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="262" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4573,7 +4571,7 @@
         <v>18</v>
       </c>
       <c r="G262" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
